--- a/natmiOut/OldD0/LR-pairs_lrc2p/Artn-Ret.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Artn-Ret.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.01915999871959</v>
+        <v>2.089056333333333</v>
       </c>
       <c r="H2">
-        <v>2.01915999871959</v>
+        <v>6.267169</v>
       </c>
       <c r="I2">
-        <v>0.725354599622266</v>
+        <v>0.7196603919224289</v>
       </c>
       <c r="J2">
-        <v>0.725354599622266</v>
+        <v>0.719660391922429</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.627166024452897</v>
+        <v>0.8229576666666668</v>
       </c>
       <c r="N2">
-        <v>0.627166024452897</v>
+        <v>2.468873</v>
       </c>
       <c r="O2">
-        <v>0.02616474681139565</v>
+        <v>0.03362764644735265</v>
       </c>
       <c r="P2">
-        <v>0.02616474681139565</v>
+        <v>0.03362764644735265</v>
       </c>
       <c r="Q2">
-        <v>1.266348549131282</v>
+        <v>1.719204925615222</v>
       </c>
       <c r="R2">
-        <v>1.266348549131282</v>
+        <v>15.472844330537</v>
       </c>
       <c r="S2">
-        <v>0.01897871944759786</v>
+        <v>0.02420048522173068</v>
       </c>
       <c r="T2">
-        <v>0.01897871944759786</v>
+        <v>0.02420048522173069</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.01915999871959</v>
+        <v>2.089056333333333</v>
       </c>
       <c r="H3">
-        <v>2.01915999871959</v>
+        <v>6.267169</v>
       </c>
       <c r="I3">
-        <v>0.725354599622266</v>
+        <v>0.7196603919224289</v>
       </c>
       <c r="J3">
-        <v>0.725354599622266</v>
+        <v>0.719660391922429</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.8472441604368</v>
+        <v>23.10177466666667</v>
       </c>
       <c r="N3">
-        <v>22.8472441604368</v>
+        <v>69.305324</v>
       </c>
       <c r="O3">
-        <v>0.9531644500631964</v>
+        <v>0.9439833204831614</v>
       </c>
       <c r="P3">
-        <v>0.9531644500631964</v>
+        <v>0.9439833204831615</v>
       </c>
       <c r="Q3">
-        <v>46.13224148973373</v>
+        <v>48.26090867863955</v>
       </c>
       <c r="R3">
-        <v>46.13224148973373</v>
+        <v>434.348178107756</v>
       </c>
       <c r="S3">
-        <v>0.6913822180497672</v>
+        <v>0.6793474063871477</v>
       </c>
       <c r="T3">
-        <v>0.6913822180497672</v>
+        <v>0.679347406387148</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.01915999871959</v>
+        <v>2.089056333333333</v>
       </c>
       <c r="H4">
-        <v>2.01915999871959</v>
+        <v>6.267169</v>
       </c>
       <c r="I4">
-        <v>0.725354599622266</v>
+        <v>0.7196603919224289</v>
       </c>
       <c r="J4">
-        <v>0.725354599622266</v>
+        <v>0.719660391922429</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.495476815115383</v>
+        <v>0.5479189999999999</v>
       </c>
       <c r="N4">
-        <v>0.495476815115383</v>
+        <v>1.643757</v>
       </c>
       <c r="O4">
-        <v>0.02067080312540806</v>
+        <v>0.02238903306948597</v>
       </c>
       <c r="P4">
-        <v>0.02067080312540806</v>
+        <v>0.02238903306948598</v>
       </c>
       <c r="Q4">
-        <v>1.000446965373963</v>
+        <v>1.144633657103666</v>
       </c>
       <c r="R4">
-        <v>1.000446965373963</v>
+        <v>10.301702913933</v>
       </c>
       <c r="S4">
-        <v>0.01499366212490105</v>
+        <v>0.01611250031355049</v>
       </c>
       <c r="T4">
-        <v>0.01499366212490105</v>
+        <v>0.0161125003135505</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.764526766031172</v>
+        <v>0.8137799999999999</v>
       </c>
       <c r="H5">
-        <v>0.764526766031172</v>
+        <v>2.44134</v>
       </c>
       <c r="I5">
-        <v>0.274645400377734</v>
+        <v>0.280339608077571</v>
       </c>
       <c r="J5">
-        <v>0.274645400377734</v>
+        <v>0.280339608077571</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.627166024452897</v>
+        <v>0.8229576666666668</v>
       </c>
       <c r="N5">
-        <v>0.627166024452897</v>
+        <v>2.468873</v>
       </c>
       <c r="O5">
-        <v>0.02616474681139565</v>
+        <v>0.03362764644735265</v>
       </c>
       <c r="P5">
-        <v>0.02616474681139565</v>
+        <v>0.03362764644735265</v>
       </c>
       <c r="Q5">
-        <v>0.4794852124396003</v>
+        <v>0.66970648998</v>
       </c>
       <c r="R5">
-        <v>0.4794852124396003</v>
+        <v>6.027358409820001</v>
       </c>
       <c r="S5">
-        <v>0.007186027363797799</v>
+        <v>0.009427161225621965</v>
       </c>
       <c r="T5">
-        <v>0.007186027363797799</v>
+        <v>0.009427161225621965</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.764526766031172</v>
+        <v>0.8137799999999999</v>
       </c>
       <c r="H6">
-        <v>0.764526766031172</v>
+        <v>2.44134</v>
       </c>
       <c r="I6">
-        <v>0.274645400377734</v>
+        <v>0.280339608077571</v>
       </c>
       <c r="J6">
-        <v>0.274645400377734</v>
+        <v>0.280339608077571</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.8472441604368</v>
+        <v>23.10177466666667</v>
       </c>
       <c r="N6">
-        <v>22.8472441604368</v>
+        <v>69.305324</v>
       </c>
       <c r="O6">
-        <v>0.9531644500631964</v>
+        <v>0.9439833204831614</v>
       </c>
       <c r="P6">
-        <v>0.9531644500631964</v>
+        <v>0.9439833204831615</v>
       </c>
       <c r="Q6">
-        <v>17.46732969070333</v>
+        <v>18.79976218824</v>
       </c>
       <c r="R6">
-        <v>17.46732969070333</v>
+        <v>169.19785969416</v>
       </c>
       <c r="S6">
-        <v>0.2617822320134292</v>
+        <v>0.2646359140960136</v>
       </c>
       <c r="T6">
-        <v>0.2617822320134292</v>
+        <v>0.2646359140960136</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.764526766031172</v>
+        <v>0.8137799999999999</v>
       </c>
       <c r="H7">
-        <v>0.764526766031172</v>
+        <v>2.44134</v>
       </c>
       <c r="I7">
-        <v>0.274645400377734</v>
+        <v>0.280339608077571</v>
       </c>
       <c r="J7">
-        <v>0.274645400377734</v>
+        <v>0.280339608077571</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.495476815115383</v>
+        <v>0.5479189999999999</v>
       </c>
       <c r="N7">
-        <v>0.495476815115383</v>
+        <v>1.643757</v>
       </c>
       <c r="O7">
-        <v>0.02067080312540806</v>
+        <v>0.02238903306948597</v>
       </c>
       <c r="P7">
-        <v>0.02067080312540806</v>
+        <v>0.02238903306948598</v>
       </c>
       <c r="Q7">
-        <v>0.3788052871035887</v>
+        <v>0.4458855238199999</v>
       </c>
       <c r="R7">
-        <v>0.3788052871035887</v>
+        <v>4.01296971438</v>
       </c>
       <c r="S7">
-        <v>0.005677141000507011</v>
+        <v>0.006276532755935474</v>
       </c>
       <c r="T7">
-        <v>0.005677141000507011</v>
+        <v>0.006276532755935475</v>
       </c>
     </row>
   </sheetData>
